--- a/일정_서승현.xlsx
+++ b/일정_서승현.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>SceneManager (Multi Thread)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map Shader,Light Test 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">InGame Camera 함수 생성 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,6 +673,27 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,27 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,13 +1060,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="19"/>
       <c r="G1" s="27"/>
       <c r="H1" s="19" t="s">
@@ -1097,11 +1105,11 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="19"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -1138,11 +1146,11 @@
       <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="19"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19"/>
@@ -1177,47 +1185,47 @@
       <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="47" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1351,7 +1359,7 @@
       <c r="O6" s="44"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="40"/>
-      <c r="R6" s="61"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="43"/>
       <c r="T6" s="40"/>
       <c r="U6" s="40"/>
@@ -1390,7 +1398,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="40"/>
-      <c r="R7" s="61"/>
+      <c r="R7" s="53"/>
       <c r="S7" s="43"/>
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
@@ -1482,11 +1490,11 @@
       <c r="N13" s="34"/>
       <c r="O13" s="35"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
       <c r="S13" s="38"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
       <c r="V13" s="37"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -1508,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="34"/>
-      <c r="R16" s="58"/>
+      <c r="R16" s="50"/>
       <c r="S16" s="45"/>
       <c r="T16" s="46"/>
     </row>
@@ -1516,8 +1524,8 @@
       <c r="E17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="59"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="46"/>
     </row>
     <row r="18" spans="5:36" x14ac:dyDescent="0.3">
@@ -1525,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="S18" s="29"/>
-      <c r="T18" s="60"/>
+      <c r="T18" s="52"/>
       <c r="U18" s="30"/>
       <c r="V18" s="31"/>
     </row>
@@ -1533,19 +1541,19 @@
       <c r="E19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U19" s="40"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="40"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="34"/>
     </row>
     <row r="20" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
     </row>
     <row r="21" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E21" s="6" t="s">
@@ -1579,15 +1587,34 @@
       <c r="E23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="33"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="40"/>
       <c r="AF23" s="30"/>
       <c r="AG23" s="30"/>
       <c r="AH23" s="30"/>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="31"/>
+    </row>
+    <row r="24" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="41"/>
+    </row>
+    <row r="25" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_서승현.xlsx
+++ b/일정_서승현.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t xml:space="preserve">InGame Camera 함수 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +247,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -531,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1026,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1587,12 +1602,12 @@
       <c r="E23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
       <c r="AH23" s="30"/>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="31"/>
@@ -1615,6 +1630,13 @@
       </c>
       <c r="AC25" s="35"/>
       <c r="AD25" s="41"/>
+    </row>
+    <row r="26" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_서승현.xlsx
+++ b/일정_서승현.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,43 +117,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI리소스추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StartScene, Loading class 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Map Shader,Light Test 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">InGame Camera 함수 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI resources 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">컴퓨터 복구 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">복구되지 못한 UI 복구 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoundManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneCamera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneManager (Multi Thread)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map Shader,Light Test 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">InGame Camera 함수 생성 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkyBox 생성</t>
+    <t xml:space="preserve">복구되지 못한 UI 파일들 복구 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse cursor image 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending Sound 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossScene making</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 UI 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만든 UI 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +267,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -543,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,7 +750,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1041,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1560,7 @@
     </row>
     <row r="17" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E17" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R17" s="50"/>
       <c r="S17" s="51"/>
@@ -1545,7 +1568,7 @@
     </row>
     <row r="18" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="52"/>
@@ -1554,7 +1577,7 @@
     </row>
     <row r="19" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E19" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U19" s="34"/>
       <c r="V19" s="35"/>
@@ -1563,7 +1586,7 @@
     </row>
     <row r="20" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E20" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
@@ -1572,71 +1595,92 @@
     </row>
     <row r="21" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="31"/>
+        <v>25</v>
+      </c>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="41"/>
     </row>
     <row r="22" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="42"/>
+        <v>26</v>
+      </c>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="41"/>
     </row>
     <row r="23" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E23" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AB23" s="30"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="30"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="31"/>
     </row>
     <row r="24" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="AB24" s="30"/>
       <c r="AC24" s="35"/>
       <c r="AD24" s="41"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="31"/>
     </row>
     <row r="25" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="31"/>
     </row>
     <row r="26" spans="5:36" x14ac:dyDescent="0.3">
       <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+    </row>
+    <row r="27" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="34"/>
+    </row>
+    <row r="28" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="35"/>
+    </row>
+    <row r="29" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="62"/>
+      <c r="AJ29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
